--- a/Project05/TournamentRankings.xlsx
+++ b/Project05/TournamentRankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CS212Fall2019\Project05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2DC636A-CCCD-4272-B4EB-19AD320AB98D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{611C73D8-EA14-4BB4-AF66-E3A3A299F69F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{5BD031E7-95DB-4A24-8DE3-7C407CDAB409}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Nate Gamble</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{661C3F31-279F-4D20-AC45-3E99D3735F0F}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{661C3F31-279F-4D20-AC45-3E99D3735F0F}">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1 Tie</t>
++1 Tie</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{E4AB5E1D-ED58-425F-B4C8-BCC4CF494780}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{6CDD329A-8B43-44B2-ADEE-F1DA29A77B91}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1 Tie</t>
++4 Ties</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{BA8B1645-3924-4427-A604-CFF4FAA09601}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nate Gamble:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++4 Ties</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{E4AB5E1D-ED58-425F-B4C8-BCC4CF494780}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nate Gamble:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++1 Tie</t>
         </r>
       </text>
     </comment>
@@ -83,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>Player 2</t>
   </si>
@@ -119,6 +167,12 @@
   </si>
   <si>
     <t>Player 2 (Bottom)</t>
+  </si>
+  <si>
+    <t>Sebrina</t>
+  </si>
+  <si>
+    <t>NateWeighted</t>
   </si>
 </sst>
 </file>
@@ -172,10 +226,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,35 +546,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9552B57-8ADF-459C-BABC-8094106FA3E2}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,409 +586,595 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3" t="s">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
